--- a/biology/Zoologie/Clausiliidae/Clausiliidae.xlsx
+++ b/biology/Zoologie/Clausiliidae/Clausiliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clausiliidae sont une famille de petits gastéropodes terrestres à coquille majoritairement senestre.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe est composé de petits gastéropodes terrestres, mesurant le plus souvent entre 9 et 20 mm. La coquille peut compter jusqu'à 18 tours, souvent sculptée de nervures radiales.
 Les Clausiliidae n'ont pas d'opercule mais une lame mobile, le clausilium, qui permet de fermer l'ouverture.
@@ -543,9 +557,11 @@
           <t>Listes des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (8 juin 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (8 juin 2018) :
 genre Acanthophaedusa H. Nordsieck, 2007
 genre Acrotoma O. Boettger, 1881
 genre Agathylla H. Adams &amp; A. Adams, 1855
@@ -674,7 +690,9 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la nouvelle taxonomie des gastéropodes de Bouchet &amp; Rocroi, la liste des sous-familles et des tribus est la suivante :
 sous-famille Clausiliinae Gray, 1855
@@ -701,13 +719,13 @@
 genre Strigilodelima A. J. Wagner, 1924
 tribu Montenegrinini H. Nordsieck, 1972
 sous-famille Baleinae A. J. Wagner, 1913 - synonymes: Laciniariini H. Nordsieck, 1963; Tristaniinae Schileyko, 1999
-sous-famille † Constrictinae H. Nordsieck, 1981[2]
+sous-famille † Constrictinae H. Nordsieck, 1981
 sous-famille Garnieriinae C. Boettger, 1926
 tribu Garnieriini C. Boettger, 1926
 tribu Tropidaucheniini H. Nordsieck, 2002
 sous-famille † Eualopiinae H. Nordsieck, 1978
-tribu † Eualopiini H. Nordsieck, 1978[3]
-tribu † Rillyini H. Nordsieck, 1985[4]
+tribu † Eualopiini H. Nordsieck, 1978
+tribu † Rillyini H. Nordsieck, 1985
 sous-famille Laminiferinae Wenz, 1923
 sous-famille Mentissoideinae Lindholm, 1924
 tribu Mentissoideini Lindholm, 1924 - synonyme: Euxininae I. M. Likharev, 1962
